--- a/thong_ke_don_hang.xlsx
+++ b/thong_ke_don_hang.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
